--- a/ITEC3040A2_DS.xlsx
+++ b/ITEC3040A2_DS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjogu\Documents\Uni_Courses\ITEC_3040\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8789E780-21CB-4D8E-BC7E-D69DE2EBF9B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C318F5D-A07B-4A5F-AEE0-B5164A9115A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34E96723-4480-40EE-A1B8-C0F2A8D4065A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{34E96723-4480-40EE-A1B8-C0F2A8D4065A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,25 +433,25 @@
   <dimension ref="A1:N271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
